--- a/Questions/Programming Language/Sqlite/Basic.xlsx
+++ b/Questions/Programming Language/Sqlite/Basic.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,22 +534,22 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A6" ySplit="1"/>
+      <selection activeCell="E16" pane="bottomLeft" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -518,7 +586,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" t="n">
         <v>785</v>
       </c>
@@ -547,7 +615,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" t="n">
         <v>786</v>
       </c>
@@ -576,7 +644,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" t="n">
         <v>787</v>
       </c>
@@ -605,7 +673,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" t="n">
         <v>788</v>
       </c>
@@ -638,7 +706,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" t="n">
         <v>789</v>
       </c>
@@ -671,7 +739,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" t="n">
         <v>790</v>
       </c>
@@ -729,7 +797,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" t="n">
         <v>792</v>
       </c>
@@ -757,7 +825,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" t="n">
         <v>793</v>
       </c>
@@ -785,7 +853,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="11">
       <c r="A11" t="n">
         <v>794</v>
       </c>
@@ -813,7 +881,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="12">
       <c r="A12" t="n">
         <v>795</v>
       </c>
@@ -841,7 +909,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="13">
       <c r="A13" t="n">
         <v>796</v>
       </c>
@@ -869,7 +937,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="14">
       <c r="A14" t="n">
         <v>797</v>
       </c>
@@ -897,7 +965,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="15">
       <c r="A15" t="n">
         <v>798</v>
       </c>
@@ -928,7 +996,7 @@
     <row r="16"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -940,7 +1008,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -952,7 +1020,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -963,7 +1031,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Sqlite/Basic.xlsx
+++ b/Questions/Programming Language/Sqlite/Basic.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,119 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -534,22 +466,22 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A6" ySplit="1"/>
-      <selection activeCell="E16" pane="bottomLeft" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -586,7 +518,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" t="n">
         <v>785</v>
       </c>
@@ -615,7 +547,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" t="n">
         <v>786</v>
       </c>
@@ -644,7 +576,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" t="n">
         <v>787</v>
       </c>
@@ -673,7 +605,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" t="n">
         <v>788</v>
       </c>
@@ -706,7 +638,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" t="n">
         <v>789</v>
       </c>
@@ -739,7 +671,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" t="n">
         <v>790</v>
       </c>
@@ -797,7 +729,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" t="n">
         <v>792</v>
       </c>
@@ -825,7 +757,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" t="n">
         <v>793</v>
       </c>
@@ -853,7 +785,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="11">
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" t="n">
         <v>794</v>
       </c>
@@ -881,7 +813,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="12">
+    <row r="12" ht="27.6" customHeight="1">
       <c r="A12" t="n">
         <v>795</v>
       </c>
@@ -909,7 +841,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="13">
+    <row r="13" ht="27.6" customHeight="1">
       <c r="A13" t="n">
         <v>796</v>
       </c>
@@ -937,7 +869,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="14">
+    <row r="14" ht="27.6" customHeight="1">
       <c r="A14" t="n">
         <v>797</v>
       </c>
@@ -965,7 +897,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="15">
+    <row r="15" ht="27.6" customHeight="1">
       <c r="A15" t="n">
         <v>798</v>
       </c>
@@ -996,7 +928,7 @@
     <row r="16"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1008,7 +940,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1020,7 +952,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1031,7 +963,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Sqlite/Basic.xlsx
+++ b/Questions/Programming Language/Sqlite/Basic.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,119 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,24 +532,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A6" ySplit="1"/>
+      <selection activeCell="E16" pane="bottomLeft" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -518,7 +586,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="2">
       <c r="A2" t="n">
         <v>785</v>
       </c>
@@ -547,7 +615,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="3">
       <c r="A3" t="n">
         <v>786</v>
       </c>
@@ -576,7 +644,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="4">
       <c r="A4" t="n">
         <v>787</v>
       </c>
@@ -605,7 +673,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="5">
       <c r="A5" t="n">
         <v>788</v>
       </c>
@@ -638,7 +706,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="6">
       <c r="A6" t="n">
         <v>789</v>
       </c>
@@ -671,7 +739,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="7">
       <c r="A7" t="n">
         <v>790</v>
       </c>
@@ -729,7 +797,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="9">
       <c r="A9" t="n">
         <v>792</v>
       </c>
@@ -757,7 +825,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="10">
       <c r="A10" t="n">
         <v>793</v>
       </c>
@@ -785,7 +853,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="11">
       <c r="A11" t="n">
         <v>794</v>
       </c>
@@ -813,7 +881,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="12">
       <c r="A12" t="n">
         <v>795</v>
       </c>
@@ -841,7 +909,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="13">
       <c r="A13" t="n">
         <v>796</v>
       </c>
@@ -869,7 +937,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="14">
       <c r="A14" t="n">
         <v>797</v>
       </c>
@@ -897,7 +965,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="27.6" customHeight="1">
+    <row customHeight="1" ht="27.6" r="15">
       <c r="A15" t="n">
         <v>798</v>
       </c>
@@ -925,10 +993,9 @@
         </is>
       </c>
     </row>
-    <row r="16"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -940,7 +1007,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -952,7 +1019,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -963,7 +1030,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Sqlite/Basic.xlsx
+++ b/Questions/Programming Language/Sqlite/Basic.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -149,51 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -534,22 +534,22 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A6" ySplit="1"/>
-      <selection activeCell="E16" pane="bottomLeft" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" thickBot="1">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Id</t>
@@ -586,7 +586,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="2">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" t="n">
         <v>785</v>
       </c>
@@ -615,7 +615,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="3">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" t="n">
         <v>786</v>
       </c>
@@ -644,7 +644,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="4">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" t="n">
         <v>787</v>
       </c>
@@ -673,7 +673,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="5">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" t="n">
         <v>788</v>
       </c>
@@ -706,7 +706,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="6">
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" t="n">
         <v>789</v>
       </c>
@@ -739,7 +739,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="7">
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" t="n">
         <v>790</v>
       </c>
@@ -797,7 +797,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="9">
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" t="n">
         <v>792</v>
       </c>
@@ -825,7 +825,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="10">
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" t="n">
         <v>793</v>
       </c>
@@ -853,7 +853,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="11">
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" t="n">
         <v>794</v>
       </c>
@@ -881,7 +881,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="12">
+    <row r="12" ht="27.6" customHeight="1">
       <c r="A12" t="n">
         <v>795</v>
       </c>
@@ -909,7 +909,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="13">
+    <row r="13" ht="27.6" customHeight="1">
       <c r="A13" t="n">
         <v>796</v>
       </c>
@@ -937,7 +937,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="14">
+    <row r="14" ht="27.6" customHeight="1">
       <c r="A14" t="n">
         <v>797</v>
       </c>
@@ -965,7 +965,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="15">
+    <row r="15" ht="27.6" customHeight="1">
       <c r="A15" t="n">
         <v>798</v>
       </c>
@@ -995,7 +995,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1007,7 +1007,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1019,7 +1019,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1030,7 +1030,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Sqlite/Basic.xlsx
+++ b/Questions/Programming Language/Sqlite/Basic.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -532,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -993,6 +925,7 @@
         </is>
       </c>
     </row>
+    <row r="16"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Programming Language/Sqlite/Basic.xlsx
+++ b/Questions/Programming Language/Sqlite/Basic.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,128 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Abbreviate of RDBMS</t>
+  </si>
+  <si>
+    <t>relational database management system</t>
+  </si>
+  <si>
+    <t>200623</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>The lite in SQLite means lightweight in terms of setup, administration and r*****</t>
+  </si>
+  <si>
+    <t>resources</t>
+  </si>
+  <si>
+    <t>SQLite requires minimal support from the operating s***** or external library</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>SQLite has serverless architecture</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>SQLite must work with a server</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>SQLite uses d***** types</t>
+  </si>
+  <si>
+    <t>dynamic</t>
+  </si>
+  <si>
+    <t>SQLite uses dynamic t*****</t>
+  </si>
+  <si>
+    <t>types</t>
+  </si>
+  <si>
+    <t>SQLite allows simultaneous a***** to multiple database files</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>SQLite allows simultaneous access to m***** database files</t>
+  </si>
+  <si>
+    <t>multiple</t>
+  </si>
+  <si>
+    <t>SQLite allows simultaneous access to multiple d***** files</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>SQLite allows simultaneous access to multiple database f*****</t>
+  </si>
+  <si>
+    <t>files</t>
+  </si>
+  <si>
+    <t>SQLite allows joining tables from d***** databases</t>
+  </si>
+  <si>
+    <t>different</t>
+  </si>
+  <si>
+    <t>SQLite allows joining tables from different d*****</t>
+  </si>
+  <si>
+    <t>databases</t>
+  </si>
+  <si>
+    <t>SQLite is capable of creating in-memory very f***** databases</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -149,51 +271,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -466,469 +588,339 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A6" ySplit="1"/>
+      <selection activeCell="E16" pane="bottomLeft" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="2" spans="1:7">
       <c r="A2" t="n">
         <v>785</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>Abbreviate of RDBMS</t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>relational database management system</t>
-        </is>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="n"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>200623</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="27.6" customHeight="1">
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="3" spans="1:7">
       <c r="A3" t="n">
         <v>786</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>The lite in SQLite means lightweight in terms of setup, administration and r*****</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>resources</t>
-        </is>
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="F3" s="6" t="n"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>200623</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="27.6" customHeight="1">
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="4" spans="1:7">
       <c r="A4" t="n">
         <v>787</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>SQLite requires minimal support from the operating s***** or external library</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>system</t>
-        </is>
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="F4" s="6" t="n"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>200623</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="27.6" customHeight="1">
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="5" spans="1:7">
       <c r="A5" t="n">
         <v>788</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>SQLite has serverless architecture</t>
-        </is>
-      </c>
-      <c r="E5" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="F5" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>200623</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="27.6" customHeight="1">
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="6" spans="1:7">
       <c r="A6" t="n">
         <v>789</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>SQLite must work with a server</t>
-        </is>
-      </c>
-      <c r="E6" s="9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="F6" s="9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>200623</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="27.6" customHeight="1">
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="7" spans="1:7">
       <c r="A7" t="n">
         <v>790</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>SQLite uses d***** types</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>dynamic</t>
-        </is>
+      <c r="C7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="F7" s="6" t="n"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>200623</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="n">
         <v>791</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="inlineStr">
-        <is>
-          <t>SQLite uses dynamic t*****</t>
-        </is>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>types</t>
-        </is>
+      <c r="C8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F8" s="6" t="n"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>200623</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="27.6" customHeight="1">
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="9" spans="1:7">
       <c r="A9" t="n">
         <v>792</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>SQLite allows simultaneous a***** to multiple database files</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>access</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>200623</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="27.6" customHeight="1">
+      <c r="C9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="10" spans="1:7">
       <c r="A10" t="n">
         <v>793</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>SQLite allows simultaneous access to m***** database files</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>multiple</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>200623</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="27.6" customHeight="1">
+      <c r="C10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="11" spans="1:7">
       <c r="A11" t="n">
         <v>794</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>SQLite allows simultaneous access to multiple d***** files</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>database</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>200623</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="27.6" customHeight="1">
+      <c r="C11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="12" spans="1:7">
       <c r="A12" t="n">
         <v>795</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>SQLite allows simultaneous access to multiple database f*****</t>
-        </is>
-      </c>
-      <c r="E12" s="5" t="inlineStr">
-        <is>
-          <t>files</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>200623</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="27.6" customHeight="1">
+      <c r="C12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="13" spans="1:7">
       <c r="A13" t="n">
         <v>796</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>SQLite allows joining tables from d***** databases</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>different</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>200623</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="27.6" customHeight="1">
+      <c r="C13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="14" spans="1:7">
       <c r="A14" t="n">
         <v>797</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>SQLite allows joining tables from different d*****</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>databases</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>200623</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="27.6" customHeight="1">
+      <c r="C14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="15" spans="1:7">
       <c r="A15" t="n">
         <v>798</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
-        <is>
-          <t>SQLite is capable of creating in-memory very f***** databases</t>
-        </is>
-      </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t>fast</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>200623</t>
-        </is>
-      </c>
-    </row>
-    <row r="16"/>
+      <c r="C15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -940,7 +932,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -952,7 +944,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -963,7 +955,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Sqlite/Basic.xlsx
+++ b/Questions/Programming Language/Sqlite/Basic.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,128 +11,6 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Abbreviate of RDBMS</t>
-  </si>
-  <si>
-    <t>relational database management system</t>
-  </si>
-  <si>
-    <t>200623</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>The lite in SQLite means lightweight in terms of setup, administration and r*****</t>
-  </si>
-  <si>
-    <t>resources</t>
-  </si>
-  <si>
-    <t>SQLite requires minimal support from the operating s***** or external library</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>SQLite has serverless architecture</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>SQLite must work with a server</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>SQLite uses d***** types</t>
-  </si>
-  <si>
-    <t>dynamic</t>
-  </si>
-  <si>
-    <t>SQLite uses dynamic t*****</t>
-  </si>
-  <si>
-    <t>types</t>
-  </si>
-  <si>
-    <t>SQLite allows simultaneous a***** to multiple database files</t>
-  </si>
-  <si>
-    <t>access</t>
-  </si>
-  <si>
-    <t>SQLite allows simultaneous access to m***** database files</t>
-  </si>
-  <si>
-    <t>multiple</t>
-  </si>
-  <si>
-    <t>SQLite allows simultaneous access to multiple d***** files</t>
-  </si>
-  <si>
-    <t>database</t>
-  </si>
-  <si>
-    <t>SQLite allows simultaneous access to multiple database f*****</t>
-  </si>
-  <si>
-    <t>files</t>
-  </si>
-  <si>
-    <t>SQLite allows joining tables from d***** databases</t>
-  </si>
-  <si>
-    <t>different</t>
-  </si>
-  <si>
-    <t>SQLite allows joining tables from different d*****</t>
-  </si>
-  <si>
-    <t>databases</t>
-  </si>
-  <si>
-    <t>SQLite is capable of creating in-memory very f***** databases</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -271,51 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -588,339 +466,469 @@
   </sheetPr>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A6" ySplit="1"/>
-      <selection activeCell="E16" pane="bottomLeft" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="2" spans="1:7">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" t="n">
         <v>785</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>Abbreviate of RDBMS</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>relational database management system</t>
+        </is>
       </c>
       <c r="F2" s="6" t="n"/>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="3" spans="1:7">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" t="n">
         <v>786</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>13</v>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>The lite in SQLite means lightweight in terms of setup, administration and r*****</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>resources</t>
+        </is>
       </c>
       <c r="F3" s="6" t="n"/>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="4" spans="1:7">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" t="n">
         <v>787</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>15</v>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>SQLite requires minimal support from the operating s***** or external library</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
       </c>
       <c r="F4" s="6" t="n"/>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="5" spans="1:7">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" t="n">
         <v>788</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="6" spans="1:7">
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>SQLite has serverless architecture</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F5" s="9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" t="n">
         <v>789</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="7" spans="1:7">
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>SQLite must work with a server</t>
+        </is>
+      </c>
+      <c r="E6" s="9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F6" s="9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" t="n">
         <v>790</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>22</v>
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>SQLite uses d***** types</t>
+        </is>
+      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>dynamic</t>
+        </is>
       </c>
       <c r="F7" s="6" t="n"/>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="n">
         <v>791</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>24</v>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>SQLite uses dynamic t*****</t>
+        </is>
+      </c>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>types</t>
+        </is>
       </c>
       <c r="F8" s="6" t="n"/>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="9" spans="1:7">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" t="n">
         <v>792</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="10" spans="1:7">
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>SQLite allows simultaneous a***** to multiple database files</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>access</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" t="n">
         <v>793</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="11" spans="1:7">
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>SQLite allows simultaneous access to m***** database files</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>multiple</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" t="n">
         <v>794</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="12" spans="1:7">
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>SQLite allows simultaneous access to multiple d***** files</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>database</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="27.6" customHeight="1">
       <c r="A12" t="n">
         <v>795</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="13" spans="1:7">
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>SQLite allows simultaneous access to multiple database f*****</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>files</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="27.6" customHeight="1">
       <c r="A13" t="n">
         <v>796</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="14" spans="1:7">
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>SQLite allows joining tables from d***** databases</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>different</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="27.6" customHeight="1">
       <c r="A14" t="n">
         <v>797</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="15" spans="1:7">
+      <c r="C14" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>SQLite allows joining tables from different d*****</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>databases</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="27.6" customHeight="1">
       <c r="A15" t="n">
         <v>798</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7"/>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>SQLite is capable of creating in-memory very f***** databases</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>fast</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>200623</t>
+        </is>
+      </c>
+    </row>
+    <row r="16"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -932,7 +940,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -944,7 +952,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -955,7 +963,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Programming Language/Sqlite/Basic.xlsx
+++ b/Questions/Programming Language/Sqlite/Basic.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/Programming Language/Sqlite/Basic.xlsx
+++ b/Questions/Programming Language/Sqlite/Basic.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/Programming Language/Sqlite/Basic.xlsx
+++ b/Questions/Programming Language/Sqlite/Basic.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,7 +532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -925,7 +993,6 @@
         </is>
       </c>
     </row>
-    <row r="16"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Programming Language/Sqlite/Basic.xlsx
+++ b/Questions/Programming Language/Sqlite/Basic.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -561,7 +629,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>The lite in SQLite means lightweight in terms of setup, administration and r*****</t>
+          <t>The lite in SQLite means lightweight in terms of setup, administration and r**************</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
@@ -685,7 +753,7 @@
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>SQLite uses d***** types</t>
+          <t>SQLite uses d******* types</t>
         </is>
       </c>
       <c r="E7" s="6" t="inlineStr">
@@ -714,7 +782,7 @@
       </c>
       <c r="D8" s="6" t="inlineStr">
         <is>
-          <t>SQLite uses dynamic t*****</t>
+          <t>SQLite uses dynamic t****</t>
         </is>
       </c>
       <c r="E8" s="6" t="inlineStr">
@@ -771,7 +839,7 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>SQLite allows simultaneous access to m***** database files</t>
+          <t>SQLite allows simultaneous access to m********* database files</t>
         </is>
       </c>
       <c r="E10" s="5" t="inlineStr">
@@ -799,7 +867,7 @@
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>SQLite allows simultaneous access to multiple d***** files</t>
+          <t>SQLite allows simultaneous access to multiple d********* files</t>
         </is>
       </c>
       <c r="E11" s="5" t="inlineStr">
@@ -827,7 +895,7 @@
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>SQLite allows simultaneous access to multiple database f*****</t>
+          <t>SQLite allows simultaneous access to multiple database f****</t>
         </is>
       </c>
       <c r="E12" s="5" t="inlineStr">
@@ -855,7 +923,7 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>SQLite allows joining tables from d***** databases</t>
+          <t>SQLite allows joining tables from d************** databases</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">
@@ -883,7 +951,7 @@
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>SQLite allows joining tables from different d*****</t>
+          <t>SQLite allows joining tables from different d**************</t>
         </is>
       </c>
       <c r="E14" s="5" t="inlineStr">
@@ -911,7 +979,7 @@
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>SQLite is capable of creating in-memory very f***** databases</t>
+          <t>SQLite is capable of creating in-memory very f*** databases</t>
         </is>
       </c>
       <c r="E15" s="5" t="inlineStr">

--- a/Questions/Programming Language/Sqlite/Basic.xlsx
+++ b/Questions/Programming Language/Sqlite/Basic.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -629,7 +561,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>The lite in SQLite means lightweight in terms of setup, administration and r**************</t>
+          <t>The lite in SQLite means lightweight in terms of setup, administration and r*****</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
@@ -753,7 +685,7 @@
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>SQLite uses d******* types</t>
+          <t>SQLite uses d***** types</t>
         </is>
       </c>
       <c r="E7" s="6" t="inlineStr">
@@ -839,7 +771,7 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>SQLite allows simultaneous access to m********* database files</t>
+          <t>SQLite allows simultaneous access to m***** database files</t>
         </is>
       </c>
       <c r="E10" s="5" t="inlineStr">
@@ -867,7 +799,7 @@
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>SQLite allows simultaneous access to multiple d********* files</t>
+          <t>SQLite allows simultaneous access to multiple d***** files</t>
         </is>
       </c>
       <c r="E11" s="5" t="inlineStr">
@@ -923,7 +855,7 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>SQLite allows joining tables from d************** databases</t>
+          <t>SQLite allows joining tables from d***** databases</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">
@@ -951,7 +883,7 @@
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>SQLite allows joining tables from different d**************</t>
+          <t>SQLite allows joining tables from different d*****</t>
         </is>
       </c>
       <c r="E14" s="5" t="inlineStr">
